--- a/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
+++ b/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\seleniumworkspaces\LiveProjects\DataDrivenFramework\src\test\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20175" windowHeight="5940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId2"/>
     <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:T18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -94,10 +90,10 @@
     <t>OpenAccountTest</t>
   </si>
   <si>
+    <t>runmode</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>runmode</t>
   </si>
 </sst>
 </file>
@@ -139,8 +135,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -407,7 +431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,7 +442,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +476,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -464,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -535,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,11 +588,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
+++ b/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20175" windowHeight="5940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13680" windowHeight="5775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:T18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -442,10 +441,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -476,7 +478,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -488,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
